--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\FrontEnd\Session46-48\BC64_Final_Capstone_ThaiHung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD07B5DC-26C3-4175-8833-EBFBDEC005FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1C944-5EB7-4BEF-99C5-40BA0BF91204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5364" yWindow="2052" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Hưng làm, hưng test</t>
   </si>
   <si>
-    <t>Đạt, Hưng</t>
-  </si>
-  <si>
     <t>21/5/2024</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>HomePage, CourseList, CourseCategory, DetailPage, LoginPage, RegisterPage, Page404, UserPage, SearchPage,Templates(Auth, Home)</t>
-  </si>
-  <si>
-    <t>Hưng làm, hưng,đạt test</t>
   </si>
   <si>
     <t>Đạt làm, Đạt test</t>
@@ -715,7 +709,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -759,13 +753,13 @@
     </row>
     <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -774,32 +768,32 @@
         <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="10">
         <v>0.8</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -808,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="10">
         <v>0.8</v>
@@ -830,10 +824,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -842,10 +836,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="10">
         <v>0.7</v>
@@ -854,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
